--- a/Master Dataset.xlsx
+++ b/Master Dataset.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="258">
   <si>
     <t>Domain</t>
   </si>
@@ -720,14 +720,140 @@
 Mechatronics</t>
   </si>
   <si>
+    <t>Designing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC design, micromapping, architecture,logic synthesis
+</t>
+  </si>
+  <si>
+    <t>electronic engineering, udemy coursera, nvidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">physical chip for automation of any process
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chip designer
+</t>
+  </si>
+  <si>
     <t>Pranav.xlsx</t>
+  </si>
+  <si>
+    <t>Mechatronics</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>mechanical engineering, electrical engineering, basic programming, hardware management</t>
+  </si>
+  <si>
+    <t>mechanical engineering electrical engineering, robotics, automation, AIML technical engineering</t>
+  </si>
+  <si>
+    <t>machine automation of any process</t>
+  </si>
+  <si>
+    <t>automotive engineer, control system engineer, instrumentation engineer</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>microcoding, python, C++, java, API, scripting, mechatronics, CAD</t>
+  </si>
+  <si>
+    <t>udemy,coursera,</t>
+  </si>
+  <si>
+    <t>writing code for automation of any process</t>
+  </si>
+  <si>
+    <t>software engineer, systems engineer,</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>semiconductors,hardware management, CAD</t>
+  </si>
+  <si>
+    <t>experience(for post graduate only)</t>
+  </si>
+  <si>
+    <t>inventing new machines</t>
+  </si>
+  <si>
+    <t>researcher</t>
+  </si>
+  <si>
+    <t>Cloud Security</t>
+  </si>
+  <si>
+    <t>NAT rounting, DSL, spam, flutter,layering</t>
+  </si>
+  <si>
+    <t>coursera, google skillboost, meta club, IT engineering,</t>
+  </si>
+  <si>
+    <t>protects data from unauthorized access/privacy</t>
+  </si>
+  <si>
+    <t>cloud engineer, cloud architect, service engineer, risk specialist</t>
+  </si>
+  <si>
+    <t>Data loss prevention</t>
+  </si>
+  <si>
+    <t>bound shields, open DLP config,endpoint protection, DevOps</t>
+  </si>
+  <si>
+    <t>udemy, classcentral, microsoft learn, inscope, IoT engineering,ML engineering</t>
+  </si>
+  <si>
+    <t>protection of important information</t>
+  </si>
+  <si>
+    <t>inventory associate, risk assessor, security engineer, incident response specialist</t>
+  </si>
+  <si>
+    <t>Forensic Analyst</t>
+  </si>
+  <si>
+    <t>sleuth kit, imaging, caine,scripting, network protocol</t>
+  </si>
+  <si>
+    <t>alison,icsindia,coursera,udemy, hackvisor</t>
+  </si>
+  <si>
+    <t>catching thieves</t>
+  </si>
+  <si>
+    <t>forensic analyst,information security analyst, security consultant, forensics investigator</t>
+  </si>
+  <si>
+    <t>Penetration Tester</t>
+  </si>
+  <si>
+    <t>powershell, hydra, zmap,VAPT, ethical hacking</t>
+  </si>
+  <si>
+    <t>codecamp,bytecode,alison,udemy,coursera</t>
+  </si>
+  <si>
+    <t>improving the security</t>
+  </si>
+  <si>
+    <t>cyber security specialist, security assurance officer, network vulnerability analyst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -738,7 +864,8 @@
       <b/>
       <sz val="14.0"/>
       <color rgb="FF434343"/>
-      <name val="Oswald"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -767,11 +894,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -837,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -931,14 +1053,11 @@
     <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2890,13 +3009,23 @@
       <c r="A42" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="33" t="s">
+      <c r="B42" s="24" t="s">
         <v>216</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2919,16 +3048,26 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="33" t="s">
-        <v>216</v>
+      <c r="A43" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G43" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -2952,15 +3091,25 @@
     </row>
     <row r="44">
       <c r="A44" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="33" t="s">
-        <v>216</v>
+        <v>222</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -2984,15 +3133,25 @@
     </row>
     <row r="45">
       <c r="A45" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="33" t="s">
-        <v>216</v>
+        <v>222</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3016,15 +3175,25 @@
     </row>
     <row r="46">
       <c r="A46" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="33" t="s">
-        <v>216</v>
+        <v>14</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3050,13 +3219,23 @@
       <c r="A47" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="33" t="s">
-        <v>216</v>
+      <c r="B47" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -3082,13 +3261,23 @@
       <c r="A48" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="33" t="s">
-        <v>216</v>
+      <c r="B48" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3114,13 +3303,23 @@
       <c r="A49" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="33" t="s">
-        <v>216</v>
+      <c r="B49" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>221</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3143,17 +3342,13 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="33" t="s">
-        <v>216</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -3175,17 +3370,13 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="33" t="s">
-        <v>216</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -29529,7 +29720,6 @@
     <row r="992">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
-      <c r="C992" s="2"/>
       <c r="D992" s="2"/>
       <c r="E992" s="2"/>
       <c r="F992" s="2"/>
@@ -29557,7 +29747,6 @@
     <row r="993">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
-      <c r="C993" s="2"/>
       <c r="D993" s="2"/>
       <c r="E993" s="2"/>
       <c r="F993" s="2"/>
@@ -29694,7 +29883,6 @@
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
       <c r="F998" s="2"/>
       <c r="G998" s="2"/>
       <c r="H998" s="2"/>
@@ -29721,7 +29909,6 @@
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
       <c r="F999" s="2"/>
       <c r="G999" s="2"/>
       <c r="H999" s="2"/>
@@ -29744,58 +29931,6 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-      <c r="Y1001" s="2"/>
-      <c r="Z1001" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D13"/>
